--- a/storage/app/excel/sub-208-1.xlsx
+++ b/storage/app/excel/sub-208-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OSPanel\domains\agromaster\storage\app\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0D6765-A59C-4275-B16E-8910FAA1B680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765F7DD2-76E0-41CF-A5DE-B3E65F1D70AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -655,7 +655,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
